--- a/Documentation/Project Information, Timeline, and Conventions.xlsx
+++ b/Documentation/Project Information, Timeline, and Conventions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BINUS\1. Courses\7th Semester\Period 1\Advanced Database Systems\Assignments\DWH\Final Result\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABB0BBE-2192-4ACA-82BB-0C6D22B899AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEA6E13-4A2D-4F96-B519-A42B4CDA774F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F1A9782B-CAEE-4B04-A164-AA81B93DF00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F1A9782B-CAEE-4B04-A164-AA81B93DF00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Detail Information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>Soccer Goals Statistics</t>
   </si>
@@ -925,112 +925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
@@ -1040,12 +935,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1058,9 +947,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1081,6 +967,120 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1398,7 +1398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC761846-C161-4369-9124-9E7264A2A934}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -1411,12 +1411,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1425,253 +1425,260 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="43"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="44" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
-      <c r="B10" s="44" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="68" t="s">
+      <c r="A12" s="59"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="66" t="s">
+      <c r="A13" s="59"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="68" t="s">
+      <c r="A14" s="59"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="30" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="66" t="s">
+      <c r="A15" s="59"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="63" t="s">
+      <c r="A16" s="59"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="68" t="s">
+      <c r="A17" s="59"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="30" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="66" t="s">
+      <c r="A18" s="59"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="63" t="s">
+      <c r="A19" s="59"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="68" t="s">
+      <c r="A20" s="59"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="30" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="39" t="s">
+      <c r="A21" s="59"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="68" t="s">
+      <c r="A22" s="59"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="30" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="60" t="s">
+      <c r="A23" s="59"/>
+      <c r="B23" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="70" t="s">
+      <c r="D23" s="32" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="64" t="s">
+      <c r="A24" s="59"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="27" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="65" t="s">
+      <c r="A25" s="59"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="28" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="72" t="s">
+      <c r="A26" s="59"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="31" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="65" t="s">
+      <c r="A27" s="59"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="72" t="s">
+      <c r="A28" s="59"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="31" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="65" t="s">
+      <c r="A29" s="60"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="28" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A29"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C29"/>
@@ -1688,13 +1695,6 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1702,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2987C848-2652-40A9-A2D3-8AFBA6AE408F}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,26 +1713,24 @@
     <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1740,18 +1738,16 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1759,10 +1755,8 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>31</v>
       </c>
@@ -1772,15 +1766,11 @@
       <c r="C5" s="19">
         <v>2</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="20">
         <v>3</v>
       </c>
-      <c r="E5" s="19">
-        <v>4</v>
-      </c>
-      <c r="F5" s="20">
-        <v>5</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1788,10 +1778,8 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
@@ -1799,9 +1787,9 @@
         <v>41</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1809,10 +1797,8 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
@@ -1820,9 +1806,9 @@
         <v>41</v>
       </c>
       <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1830,10 +1816,8 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
@@ -1841,9 +1825,9 @@
         <v>41</v>
       </c>
       <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1851,10 +1835,8 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -1862,9 +1844,9 @@
         <v>41</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1872,10 +1854,8 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -1883,9 +1863,9 @@
       <c r="C10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1893,10 +1873,8 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
@@ -1904,9 +1882,9 @@
       <c r="C11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1914,22 +1892,18 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1937,20 +1911,18 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1958,20 +1930,18 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16" t="s">
+      <c r="D14" s="16" t="s">
         <v>41</v>
       </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1979,14 +1949,12 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
@@ -2008,91 +1976,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="58">
+      <c r="A4" s="23">
         <v>1</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="43"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="58">
+      <c r="A5" s="23">
         <v>2</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="43"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="58">
+      <c r="A6" s="23">
         <v>3</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="43"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="58">
+      <c r="A7" s="23">
         <v>4</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="43"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="58">
+      <c r="A8" s="23">
         <v>5</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="43"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59">
+      <c r="A9" s="24">
         <v>6</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
